--- a/docs/StructureDefinition-BarotraumaAssessment.xlsx
+++ b/docs/StructureDefinition-BarotraumaAssessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-01T22:56:50-05:00</t>
+    <t>2025-06-01T23:37:11-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BarotraumaAssessment.xlsx
+++ b/docs/StructureDefinition-BarotraumaAssessment.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.2</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-01T23:37:11-05:00</t>
+    <t>2025-12-25T11:43:35-07:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -380,7 +380,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -516,7 +516,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -545,7 +545,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
 </t>
   </si>
   <si>
@@ -628,7 +628,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
@@ -671,7 +671,7 @@
     <t>Codes identifying names of simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -726,7 +726,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -749,7 +749,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -840,7 +840,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|CareTeam|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -918,7 +918,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">obs-6
@@ -950,7 +950,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1006,7 +1006,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1039,7 +1039,7 @@
     <t>Methods for simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods|4.0.1</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1051,7 +1051,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -1079,7 +1079,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
+    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
 </t>
   </si>
   <si>
@@ -1181,7 +1181,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1231,7 +1231,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1264,7 +1264,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1301,7 +1301,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
+    <t xml:space="preserve">Reference(Observation|4.0.1|QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -1323,7 +1323,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
+    <t xml:space="preserve">Reference(DocumentReference|4.0.1|ImagingStudy|4.0.1|Media|4.0.1|QuestionnaireResponse|4.0.1|Observation|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -1925,7 +1925,7 @@
     <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="92.421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="119.96875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1940,7 +1940,7 @@
     <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="53.24609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="43.92578125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="48.51953125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="16.2578125" customWidth="true" bestFit="true"/>
@@ -3526,7 +3526,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>176</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>199</v>
       </c>
@@ -8118,7 +8118,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
         <v>450</v>
       </c>
@@ -9212,7 +9212,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
         <v>461</v>
       </c>
@@ -10306,7 +10306,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
         <v>472</v>
       </c>
@@ -11400,7 +11400,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
         <v>483</v>
       </c>
@@ -12496,12 +12496,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP87">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/docs/StructureDefinition-BarotraumaAssessment.xlsx
+++ b/docs/StructureDefinition-BarotraumaAssessment.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.5.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-25T11:43:35-07:00</t>
+    <t>2025-12-29T13:16:13-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BarotraumaAssessment.xlsx
+++ b/docs/StructureDefinition-BarotraumaAssessment.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.1</t>
+    <t>0.5.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T13:16:13-07:00</t>
+    <t>2025-12-29T20:17:52-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BarotraumaAssessment.xlsx
+++ b/docs/StructureDefinition-BarotraumaAssessment.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.2</t>
+    <t>0.5.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T20:17:52-07:00</t>
+    <t>2025-12-29T22:23:37-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BarotraumaAssessment.xlsx
+++ b/docs/StructureDefinition-BarotraumaAssessment.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.3</t>
+    <t>0.5.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T22:23:37-07:00</t>
+    <t>2025-12-29T23:18:22-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BarotraumaAssessment.xlsx
+++ b/docs/StructureDefinition-BarotraumaAssessment.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.4</t>
+    <t>0.5.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T23:18:22-07:00</t>
+    <t>2025-12-30T00:07:25-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BarotraumaAssessment.xlsx
+++ b/docs/StructureDefinition-BarotraumaAssessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-30T13:15:27-07:00</t>
+    <t>2025-12-30T19:11:20-07:00</t>
   </si>
   <si>
     <t>Publisher</t>
